--- a/project_manager/targets/default_targets/target_infos.xlsx
+++ b/project_manager/targets/default_targets/target_infos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t xml:space="preserve">target_name</t>
   </si>
@@ -116,6 +116,7 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">png</t>
     </r>
@@ -143,6 +144,7 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">png</t>
     </r>
@@ -202,6 +204,12 @@
     <t xml:space="preserve">s22.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">s23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_target.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Odroid-n2</t>
   </si>
   <si>
@@ -218,6 +226,45 @@
   </si>
   <si>
     <t xml:space="preserve">odroid-n2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odroid M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odroid_M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rknn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasberry Pi5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasberry_Pi5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma 3X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma_3X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KT cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KT_cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Web Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Cloud Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCP</t>
   </si>
 </sst>
 </file>
@@ -227,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -249,6 +296,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -312,7 +366,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,6 +376,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,13 +462,13 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.78"/>
@@ -682,31 +740,209 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/project_manager/targets/default_targets/target_infos.xlsx
+++ b/project_manager/targets/default_targets/target_infos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
   <si>
     <t xml:space="preserve">target_name</t>
   </si>
@@ -243,10 +243,16 @@
     <t xml:space="preserve">Rasberry_Pi5</t>
   </si>
   <si>
+    <t xml:space="preserve">tpu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comma 3X</t>
   </si>
   <si>
     <t xml:space="preserve">Comma_3X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adreno</t>
   </si>
   <si>
     <t xml:space="preserve">KT cloud</t>
@@ -274,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -303,12 +309,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -366,7 +366,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -379,7 +379,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,12 +467,12 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.78"/>
@@ -788,13 +792,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -804,23 +808,23 @@
         <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -830,23 +834,23 @@
         <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -856,7 +860,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>54</v>
@@ -866,23 +870,23 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>54</v>
@@ -892,13 +896,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -918,13 +922,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">

--- a/project_manager/targets/default_targets/target_infos.xlsx
+++ b/project_manager/targets/default_targets/target_infos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
   <si>
     <t xml:space="preserve">target_name</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">image_file_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
   </si>
   <si>
     <t xml:space="preserve">cloud</t>
@@ -207,7 +210,7 @@
     <t xml:space="preserve">s23</t>
   </si>
   <si>
-    <t xml:space="preserve">default_target.png</t>
+    <t xml:space="preserve">s23.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Odroid-n2</t>
@@ -237,6 +240,9 @@
     <t xml:space="preserve">rknn</t>
   </si>
   <si>
+    <t xml:space="preserve">OdroidM1.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rasberry Pi5</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
     <t xml:space="preserve">tpu</t>
   </si>
   <si>
+    <t xml:space="preserve">RasberryPi5.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comma 3X</t>
   </si>
   <si>
@@ -255,22 +264,34 @@
     <t xml:space="preserve">adreno</t>
   </si>
   <si>
+    <t xml:space="preserve">comma-3x.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">KT cloud</t>
   </si>
   <si>
     <t xml:space="preserve">KT_cloud</t>
   </si>
   <si>
+    <t xml:space="preserve">Kt_cloud.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amazon Web Services</t>
   </si>
   <si>
     <t xml:space="preserve">AWS</t>
   </si>
   <si>
+    <t xml:space="preserve">aws.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Google Cloud Platform</t>
   </si>
   <si>
     <t xml:space="preserve">GCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCP.png</t>
   </si>
 </sst>
 </file>
@@ -464,10 +485,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -475,8 +496,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="15.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,447 +526,501 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>49</v>
+        <v>77</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/project_manager/targets/default_targets/target_infos.xlsx
+++ b/project_manager/targets/default_targets/target_infos.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\2. TANGO\TANGO 실험\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9714904F-967A-43EE-8381-B3EA91C3D04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="6780" yWindow="6555" windowWidth="40890" windowHeight="16725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,87 +28,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
-  <si>
-    <t xml:space="preserve">target_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accelerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image_file_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pytorch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubuntu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cloud.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k8s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K8S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k8s.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k8s_jetsonnano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K8S_Jetson_Nano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k8s_jetsonnano.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcweb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC_Web</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
+  <si>
+    <t>target_name</t>
+  </si>
+  <si>
+    <t>target info</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>accelerator</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>image_file_name</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>pytorch</t>
+  </si>
+  <si>
+    <t>ubuntu</t>
+  </si>
+  <si>
+    <t>x86</t>
+  </si>
+  <si>
+    <t>256G</t>
+  </si>
+  <si>
+    <t>cloud.png</t>
+  </si>
+  <si>
+    <t>k8s</t>
+  </si>
+  <si>
+    <t>K8S</t>
+  </si>
+  <si>
+    <t>64G</t>
+  </si>
+  <si>
+    <t>k8s.png</t>
+  </si>
+  <si>
+    <t>k8s_jetsonnano</t>
+  </si>
+  <si>
+    <t>K8S_Jetson_Nano</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>k8s_jetsonnano.png</t>
+  </si>
+  <si>
+    <t>pcweb</t>
+  </si>
+  <si>
+    <t>PC_Web</t>
   </si>
   <si>
     <r>
@@ -111,7 +119,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">pcweb.</t>
+      <t>pcweb.</t>
     </r>
     <r>
       <rPr>
@@ -121,14 +129,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">png</t>
+      <t>png</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">pc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC</t>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>PC</t>
   </si>
   <si>
     <r>
@@ -139,7 +147,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">pc.</t>
+      <t>pc.</t>
     </r>
     <r>
       <rPr>
@@ -149,159 +157,164 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">png</t>
+      <t>png</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Jetson-orin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jetson_AGX_Orin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tensorrt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jetson-orin.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jetson-xavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jetson_AGX_Xavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jetson-xavier.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jetson-nano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jetson_Nano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jetson-nano.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galaxy_S22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tflite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s22.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s23.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odroid-n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odroid_N2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opencl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">odroid-n2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odroid M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odroid_M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rknn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OdroidM1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasberry Pi5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasberry_Pi5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RasberryPi5.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma 3X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma_3X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adreno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comma-3x.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KT cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KT_cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kt_cloud.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Web Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aws.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Cloud Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCP.png</t>
+    <t>Jetson-orin</t>
+  </si>
+  <si>
+    <t>Jetson_AGX_Orin</t>
+  </si>
+  <si>
+    <t>tensorrt</t>
+  </si>
+  <si>
+    <t>cuda</t>
+  </si>
+  <si>
+    <t>jetson-orin.jpeg</t>
+  </si>
+  <si>
+    <t>Jetson-xavier</t>
+  </si>
+  <si>
+    <t>Jetson_AGX_Xavier</t>
+  </si>
+  <si>
+    <t>32G</t>
+  </si>
+  <si>
+    <t>jetson-xavier.jpeg</t>
+  </si>
+  <si>
+    <t>Jetson-nano</t>
+  </si>
+  <si>
+    <t>Jetson_Nano</t>
+  </si>
+  <si>
+    <t>jetson-nano.jpg</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>Galaxy_S22</t>
+  </si>
+  <si>
+    <t>tflite</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>8G</t>
+  </si>
+  <si>
+    <t>s22.jpg</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s23.jpg</t>
+  </si>
+  <si>
+    <t>Odroid-n2</t>
+  </si>
+  <si>
+    <t>Odroid_N2</t>
+  </si>
+  <si>
+    <t>acl</t>
+  </si>
+  <si>
+    <t>opencl</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>odroid-n2.jpg</t>
+  </si>
+  <si>
+    <t>Odroid M1</t>
+  </si>
+  <si>
+    <t>Odroid_M1</t>
+  </si>
+  <si>
+    <t>rknn</t>
+  </si>
+  <si>
+    <t>OdroidM1.jpg</t>
+  </si>
+  <si>
+    <t>Rasberry Pi5</t>
+  </si>
+  <si>
+    <t>Rasberry_Pi5</t>
+  </si>
+  <si>
+    <t>tpu</t>
+  </si>
+  <si>
+    <t>RasberryPi5.jpg</t>
+  </si>
+  <si>
+    <t>Comma 3X</t>
+  </si>
+  <si>
+    <t>Comma_3X</t>
+  </si>
+  <si>
+    <t>adreno</t>
+  </si>
+  <si>
+    <t>comma-3x.jpg</t>
+  </si>
+  <si>
+    <t>KT cloud</t>
+  </si>
+  <si>
+    <t>KT_cloud</t>
+  </si>
+  <si>
+    <t>Kt_cloud.png</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>aws.png</t>
+  </si>
+  <si>
+    <t>Google Cloud Platform</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>GCP.png</t>
+  </si>
+  <si>
+    <t>cuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -310,26 +323,17 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -347,76 +351,56 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -475,34 +459,362 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="15.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.6"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="10" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -523,15 +835,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -552,15 +864,15 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -581,15 +893,15 @@
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -610,15 +922,15 @@
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -639,15 +951,15 @@
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -663,20 +975,20 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -697,15 +1009,15 @@
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -726,15 +1038,15 @@
       <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -755,15 +1067,15 @@
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -784,15 +1096,15 @@
       <c r="G10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -816,12 +1128,12 @@
       <c r="H11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -842,14 +1154,14 @@
       <c r="G12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -871,14 +1183,14 @@
       <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -900,14 +1212,14 @@
       <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
@@ -929,14 +1241,14 @@
       <c r="G15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -958,14 +1270,14 @@
       <c r="G16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -987,14 +1299,14 @@
       <c r="G17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1016,30 +1328,16 @@
       <c r="G18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>2</v>
       </c>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>